--- a/11_Period_20_Oct_2024_sd_19_Nov_2024/Timesheet Danamon_Bayu Bagus Bagaswara_November.xlsx
+++ b/11_Period_20_Oct_2024_sd_19_Nov_2024/Timesheet Danamon_Bayu Bagus Bagaswara_November.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankdanamonindonesia-my.sharepoint.com/personal/v00028684_danamon_co_id/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bayub\Projects Bayu\TIMESHEET DANAMON BAYU\11_Period_20_Oct_2024_sd_19_Nov_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{3062CF38-8F1F-4A4C-BAA3-71B354AC3BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8ED758F-8134-4B14-BF00-9CCC5C4C9BE9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD7F0F1-05D5-4E27-BC56-D74B32CF854B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="1" xr2:uid="{287076C2-500C-4AE4-B01E-3C74A6B599A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{287076C2-500C-4AE4-B01E-3C74A6B599A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet_Template (OLD)" sheetId="28" state="hidden" r:id="rId1"/>
@@ -39,14 +39,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="207">
   <si>
     <t>Timesheet Period</t>
   </si>
@@ -717,9 +717,6 @@
     <t>Daily IT TFC</t>
   </si>
   <si>
-    <t>IT-2024-000038-01</t>
-  </si>
-  <si>
     <t>please drop your signature here
 Edy Yanto</t>
   </si>
@@ -728,32 +725,1869 @@
 Dody Arya</t>
   </si>
   <si>
-    <t>25-Sep-24
+    <t>IT Java Developer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Optimization and code review of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LKPBU read insert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> process including </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LKPBUController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LKPBUDataSourceService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mapCsvLKPBUDataSource</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LKPBUDataSourceRepository</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Optimization and code review of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LBABK read inser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t process including </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LBABKController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LBABKDataSourceService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mapCsvLBABKDataSource</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LBABKDataSourceRepository</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Optimization and code review of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LKPBU Income read insert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> process including </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LKPBUIncomeController, LKPBUIncomeService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mapCsvLKPBUIncome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LKPBUIncomeRepository</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Optimization and code review of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LKPBU recon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> process including </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LKPBUReconController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LKPBUReconService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LKPBUReconRepository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Also includes several methods such as updateRecon, updateApprove, reconPortfolioCode, reconSecurityCode, getAllDistinctPortfolioCode, getAllDistinctSecurityCode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Optimization and code review of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LBABK recon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> process including </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LBABKReconController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LBABKReconService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LBABKReconRepository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Also includes several methods such as updateRecon, updateApprove, reconSecurityCode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Optimization and code review of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LKPBU process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> including </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LKPBUController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LKPBUService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Also includes several methods such as processLKPBU,  generateTxtAndSaveToServer, getAllByMonthAndYear</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Optimization and code review of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LBABK process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> including </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LBABKController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LBABKService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Also includes several methods such as processLBABK, generateTxtAndSaveToServer, getAllByMonthAndYear</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Optimization and code review of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Asset Under Custody process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> including </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AssetUnderCustodyController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AssetUnderCustodyService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AssetUnderCustodyRepository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Also includes several methods such as processAssetUnderCustody, generateTxtAndSaveToServer, getAllByMonthAndYear, upadateByTypeEffectCode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Optimization and code review of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Download Report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> including </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LKPBUDownloadController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LBABKDownloadController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AssetUnderCustodyController</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Optimization and code review of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kode ISIN Efek</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> including </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SecuritiesISINCodeController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SecuritiesISINCodeService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SecuritiesISINCodeRepository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Also includes several methods such as upload data, approval, and get all data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Optimization and code review of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kode Issuer Efek</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> including </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SecuritiesIssuerCodeController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SecuritiesIssuerCodeService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SecuritiesIssuerCodeRepository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Also includes several methods such as upload data, approval, and get all data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Optimization and code review of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Golongan Pemilik</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> including </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OwnerGroupController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OwnerGroupService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OwnerGroupRepository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Also includes several methods such as upload data, approval, and get all data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Optimization and code review of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Asuransi Dapen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> including </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>InsurancePensionFundController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>InsurancePensionFundService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nsurancePensionRepository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Also includes several methods such as upload data, approval, and get all data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Optimization and code review of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Issuer Placement Bank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> including </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IssuerPlacementBankController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IssuerPlacementBankService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IssuerPlacementBankRepository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Also includes several methods such as upload data, approval, and get all data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prepared</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> checked all objects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for Release 9B implementation such as several package models, controllers, services, repositories, dtos, exceptions, mappers, and utils</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Implementaion Release 9B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to production</t>
+    </r>
+  </si>
+  <si>
+    <t>19-Nov-24
 Bayu Bagus Bagaswara</t>
   </si>
   <si>
-    <t>IT Java Developer</t>
-  </si>
-  <si>
-    <t>UAT</t>
-  </si>
-  <si>
-    <t>Check and review code Release 9B</t>
-  </si>
-  <si>
-    <t>Production Release 9B</t>
-  </si>
-  <si>
-    <t>Prepare development DRO</t>
-  </si>
-  <si>
-    <t>Monitoring after production Release 9B</t>
-  </si>
-  <si>
-    <t>Prepare documentation DDCL</t>
-  </si>
-  <si>
-    <t>Prepare object implementation: controller, model, service, repository</t>
+    <r>
+      <t xml:space="preserve">UAT Support: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LKPBU reconciliation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> based on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Portfolio Code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for Golongan Pemilik data, Referensi Dapen Asuransi, and Dana Jaminan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UAT Support:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LKPBU reconciliation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> based on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Security Code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for ISIN Code and Placement Bank data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UAT Support:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LBABK reconciliation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> based on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Security Code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for Issuer Code and ISIN Code data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UAT Support: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Process data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for each report: LKPBU, LBABK, and AUC, to check whether there are any outstanding reconciliations.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PAT Monitoring: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Meeting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to review the Data Source and compare the Manual Report with the CSA Report.</t>
+    </r>
+  </si>
+  <si>
+    <t>PAT Monitoring: Preparation data source LKPBU, LBABK, and Income</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PAT Monitoring: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Upload</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data source LKPBU, LBABK, and Income</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PAT Monitoring: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LKPBU reconciliation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> based on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Portfolio Code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for Golongan Pemilik data, Referensi Dapen Asuransi, and Dana Jaminan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PAT Monitoring:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LKPBU reconciliation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> based on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Security Code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for ISIN Code and Placement Bank data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PAT Monitoring:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LBABK reconciliation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> based on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Security Code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for Issuer Code and ISIN Code data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PAT Monitoring: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Process data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for each report: LKPBU, LBABK, and AUC, to check whether there are any outstanding reconciliations.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PAT Monitoring: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generate reports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for LKPBU, LBABK, and AUC in TXT file format, saved on the server</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PAT Monitoring: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Download reports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for LKPBU, LBABK, and AUC in TXT file format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Research for</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DRO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> regarding connections, configurations and SQL queries.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Add</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> module </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DRO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LKPBU, LBABK, and Income including controller and service.</t>
+    </r>
+  </si>
+  <si>
+    <t>CRF-5094 - CSA Release 9B - LKPBU &amp; LBABK</t>
+  </si>
+  <si>
+    <t>Discuss with the developer team regarding DRO LKPBU, LBABK, and Income</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Assessment DRO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for each LKPBU, LBABK, and Income</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -929,7 +2763,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1014,14 +2848,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="45">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1553,6 +3381,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1562,7 +3418,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1965,22 +3821,117 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1999,108 +3950,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2154,6 +4003,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2792,12 +4665,12 @@
       </c>
       <c r="L5" s="78"/>
       <c r="M5" s="78"/>
-      <c r="N5" s="153" t="s">
+      <c r="N5" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="153"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="142"/>
     </row>
     <row r="6" spans="1:35" ht="17" x14ac:dyDescent="0.4">
       <c r="A6" s="74" t="s">
@@ -2822,12 +4695,12 @@
       </c>
       <c r="L6" s="87"/>
       <c r="M6" s="76"/>
-      <c r="N6" s="152" t="s">
+      <c r="N6" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="152"/>
-      <c r="P6" s="152"/>
-      <c r="Q6" s="152"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="1:35" s="42" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -2850,13 +4723,13 @@
       <c r="Q7" s="76"/>
     </row>
     <row r="9" spans="1:35" ht="17" x14ac:dyDescent="0.35">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="175" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="50" t="str">
@@ -2979,7 +4852,7 @@
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="AH9" s="144" t="s">
+      <c r="AH9" s="139" t="s">
         <v>23</v>
       </c>
       <c r="AI9" s="90" t="s">
@@ -2987,9 +4860,9 @@
       </c>
     </row>
     <row r="10" spans="1:35" ht="17" x14ac:dyDescent="0.35">
-      <c r="A10" s="143"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="143"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="175"/>
       <c r="D10" s="51" cm="1">
         <f t="array" ref="D10:AG10">IFERROR(IF(OR((B3-B2+1)&gt;31,B2="",B3=""),"",_xlfn.SEQUENCE(,B3-B2+1,B2)),"")</f>
         <v>45536</v>
@@ -3081,7 +4954,7 @@
       <c r="AG10" s="51">
         <v>45565</v>
       </c>
-      <c r="AH10" s="144"/>
+      <c r="AH10" s="139"/>
       <c r="AI10" s="90"/>
     </row>
     <row r="11" spans="1:35" ht="17" x14ac:dyDescent="0.4">
@@ -3693,11 +5566,11 @@
       <c r="AI21" s="73"/>
     </row>
     <row r="22" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A22" s="145" t="s">
+      <c r="A22" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="146"/>
-      <c r="C22" s="147"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="178"/>
       <c r="D22" s="57"/>
       <c r="E22" s="57">
         <v>8</v>
@@ -3741,11 +5614,11 @@
       <c r="AI22" s="73"/>
     </row>
     <row r="23" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A23" s="145" t="s">
+      <c r="A23" s="176" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="146"/>
-      <c r="C23" s="147"/>
+      <c r="B23" s="177"/>
+      <c r="C23" s="178"/>
       <c r="D23" s="57"/>
       <c r="E23" s="57"/>
       <c r="F23" s="57">
@@ -3785,11 +5658,11 @@
       <c r="AI23" s="73"/>
     </row>
     <row r="24" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A24" s="148" t="s">
+      <c r="A24" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="149"/>
-      <c r="C24" s="150"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="181"/>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
       <c r="F24" s="57"/>
@@ -3829,11 +5702,11 @@
       <c r="AI24" s="73"/>
     </row>
     <row r="25" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A25" s="145" t="s">
+      <c r="A25" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="146"/>
-      <c r="C25" s="147"/>
+      <c r="B25" s="177"/>
+      <c r="C25" s="178"/>
       <c r="D25" s="57"/>
       <c r="E25" s="57">
         <f t="shared" ref="E25:AB25" si="1">SUM(E11:E20)</f>
@@ -3964,145 +5837,145 @@
         <v>42</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
-      <c r="S27" s="173" t="s">
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="S27" s="162" t="s">
         <v>43</v>
       </c>
-      <c r="T27" s="174"/>
-      <c r="U27" s="174"/>
-      <c r="V27" s="174"/>
-      <c r="W27" s="174"/>
-      <c r="X27" s="174"/>
-      <c r="Y27" s="174"/>
-      <c r="Z27" s="174"/>
-      <c r="AA27" s="175"/>
-      <c r="AC27" s="181" t="s">
+      <c r="T27" s="163"/>
+      <c r="U27" s="163"/>
+      <c r="V27" s="163"/>
+      <c r="W27" s="163"/>
+      <c r="X27" s="163"/>
+      <c r="Y27" s="163"/>
+      <c r="Z27" s="163"/>
+      <c r="AA27" s="164"/>
+      <c r="AC27" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="AD27" s="182"/>
-      <c r="AE27" s="182"/>
-      <c r="AF27" s="182"/>
-      <c r="AG27" s="182"/>
-      <c r="AH27" s="182"/>
-      <c r="AI27" s="182"/>
-      <c r="AJ27" s="183"/>
+      <c r="AD27" s="171"/>
+      <c r="AE27" s="171"/>
+      <c r="AF27" s="171"/>
+      <c r="AG27" s="171"/>
+      <c r="AH27" s="171"/>
+      <c r="AI27" s="171"/>
+      <c r="AJ27" s="172"/>
     </row>
     <row r="28" spans="1:36" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="69"/>
       <c r="B28" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="S28" s="164" t="s">
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="143"/>
+      <c r="S28" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="T28" s="165"/>
-      <c r="U28" s="155" t="s">
+      <c r="T28" s="154"/>
+      <c r="U28" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="V28" s="156"/>
-      <c r="W28" s="156"/>
-      <c r="X28" s="156"/>
-      <c r="Y28" s="156"/>
-      <c r="Z28" s="156"/>
-      <c r="AA28" s="157"/>
-      <c r="AC28" s="170" t="s">
+      <c r="V28" s="145"/>
+      <c r="W28" s="145"/>
+      <c r="X28" s="145"/>
+      <c r="Y28" s="145"/>
+      <c r="Z28" s="145"/>
+      <c r="AA28" s="146"/>
+      <c r="AC28" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="AD28" s="156"/>
-      <c r="AE28" s="156"/>
-      <c r="AF28" s="156"/>
-      <c r="AG28" s="156"/>
-      <c r="AH28" s="156"/>
-      <c r="AI28" s="156"/>
-      <c r="AJ28" s="157"/>
+      <c r="AD28" s="145"/>
+      <c r="AE28" s="145"/>
+      <c r="AF28" s="145"/>
+      <c r="AG28" s="145"/>
+      <c r="AH28" s="145"/>
+      <c r="AI28" s="145"/>
+      <c r="AJ28" s="146"/>
     </row>
     <row r="29" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="70"/>
       <c r="B29" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-      <c r="S29" s="166"/>
-      <c r="T29" s="167"/>
-      <c r="U29" s="158"/>
-      <c r="V29" s="159"/>
-      <c r="W29" s="159"/>
-      <c r="X29" s="159"/>
-      <c r="Y29" s="159"/>
-      <c r="Z29" s="159"/>
-      <c r="AA29" s="160"/>
-      <c r="AC29" s="171"/>
-      <c r="AD29" s="159"/>
-      <c r="AE29" s="159"/>
-      <c r="AF29" s="159"/>
-      <c r="AG29" s="159"/>
-      <c r="AH29" s="159"/>
-      <c r="AI29" s="159"/>
-      <c r="AJ29" s="160"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="143"/>
+      <c r="S29" s="155"/>
+      <c r="T29" s="156"/>
+      <c r="U29" s="147"/>
+      <c r="V29" s="148"/>
+      <c r="W29" s="148"/>
+      <c r="X29" s="148"/>
+      <c r="Y29" s="148"/>
+      <c r="Z29" s="148"/>
+      <c r="AA29" s="149"/>
+      <c r="AC29" s="160"/>
+      <c r="AD29" s="148"/>
+      <c r="AE29" s="148"/>
+      <c r="AF29" s="148"/>
+      <c r="AG29" s="148"/>
+      <c r="AH29" s="148"/>
+      <c r="AI29" s="148"/>
+      <c r="AJ29" s="149"/>
     </row>
     <row r="30" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="71"/>
       <c r="B30" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="154"/>
-      <c r="S30" s="166"/>
-      <c r="T30" s="167"/>
-      <c r="U30" s="158"/>
-      <c r="V30" s="159"/>
-      <c r="W30" s="159"/>
-      <c r="X30" s="159"/>
-      <c r="Y30" s="159"/>
-      <c r="Z30" s="159"/>
-      <c r="AA30" s="160"/>
-      <c r="AC30" s="171"/>
-      <c r="AD30" s="159"/>
-      <c r="AE30" s="159"/>
-      <c r="AF30" s="159"/>
-      <c r="AG30" s="159"/>
-      <c r="AH30" s="159"/>
-      <c r="AI30" s="159"/>
-      <c r="AJ30" s="160"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="143"/>
+      <c r="S30" s="155"/>
+      <c r="T30" s="156"/>
+      <c r="U30" s="147"/>
+      <c r="V30" s="148"/>
+      <c r="W30" s="148"/>
+      <c r="X30" s="148"/>
+      <c r="Y30" s="148"/>
+      <c r="Z30" s="148"/>
+      <c r="AA30" s="149"/>
+      <c r="AC30" s="160"/>
+      <c r="AD30" s="148"/>
+      <c r="AE30" s="148"/>
+      <c r="AF30" s="148"/>
+      <c r="AG30" s="148"/>
+      <c r="AH30" s="148"/>
+      <c r="AI30" s="148"/>
+      <c r="AJ30" s="149"/>
     </row>
     <row r="31" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S31" s="166"/>
-      <c r="T31" s="167"/>
-      <c r="U31" s="158"/>
-      <c r="V31" s="159"/>
-      <c r="W31" s="159"/>
-      <c r="X31" s="159"/>
-      <c r="Y31" s="159"/>
-      <c r="Z31" s="159"/>
-      <c r="AA31" s="160"/>
-      <c r="AC31" s="171"/>
-      <c r="AD31" s="159"/>
-      <c r="AE31" s="159"/>
-      <c r="AF31" s="159"/>
-      <c r="AG31" s="159"/>
-      <c r="AH31" s="159"/>
-      <c r="AI31" s="159"/>
-      <c r="AJ31" s="160"/>
+      <c r="S31" s="155"/>
+      <c r="T31" s="156"/>
+      <c r="U31" s="147"/>
+      <c r="V31" s="148"/>
+      <c r="W31" s="148"/>
+      <c r="X31" s="148"/>
+      <c r="Y31" s="148"/>
+      <c r="Z31" s="148"/>
+      <c r="AA31" s="149"/>
+      <c r="AC31" s="160"/>
+      <c r="AD31" s="148"/>
+      <c r="AE31" s="148"/>
+      <c r="AF31" s="148"/>
+      <c r="AG31" s="148"/>
+      <c r="AH31" s="148"/>
+      <c r="AI31" s="148"/>
+      <c r="AJ31" s="149"/>
     </row>
     <row r="32" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="72" t="s">
@@ -4115,29 +5988,29 @@
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
       <c r="H32" s="44"/>
-      <c r="S32" s="176"/>
-      <c r="T32" s="177"/>
-      <c r="U32" s="178"/>
-      <c r="V32" s="179"/>
-      <c r="W32" s="179"/>
-      <c r="X32" s="179"/>
-      <c r="Y32" s="179"/>
-      <c r="Z32" s="179"/>
-      <c r="AA32" s="180"/>
-      <c r="AC32" s="184"/>
-      <c r="AD32" s="179"/>
-      <c r="AE32" s="179"/>
-      <c r="AF32" s="179"/>
-      <c r="AG32" s="179"/>
-      <c r="AH32" s="179"/>
-      <c r="AI32" s="179"/>
-      <c r="AJ32" s="180"/>
+      <c r="S32" s="165"/>
+      <c r="T32" s="166"/>
+      <c r="U32" s="167"/>
+      <c r="V32" s="168"/>
+      <c r="W32" s="168"/>
+      <c r="X32" s="168"/>
+      <c r="Y32" s="168"/>
+      <c r="Z32" s="168"/>
+      <c r="AA32" s="169"/>
+      <c r="AC32" s="173"/>
+      <c r="AD32" s="168"/>
+      <c r="AE32" s="168"/>
+      <c r="AF32" s="168"/>
+      <c r="AG32" s="168"/>
+      <c r="AH32" s="168"/>
+      <c r="AI32" s="168"/>
+      <c r="AJ32" s="169"/>
     </row>
     <row r="33" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="151" t="s">
+      <c r="A33" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="151"/>
+      <c r="B33" s="140"/>
       <c r="C33" s="63">
         <f>COUNTIF(D24:AG24,"=8")</f>
         <v>1</v>
@@ -4147,29 +6020,29 @@
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
-      <c r="S33" s="164" t="s">
+      <c r="S33" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="T33" s="165"/>
-      <c r="U33" s="155" t="s">
+      <c r="T33" s="154"/>
+      <c r="U33" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="V33" s="156"/>
-      <c r="W33" s="156"/>
-      <c r="X33" s="156"/>
-      <c r="Y33" s="156"/>
-      <c r="Z33" s="156"/>
-      <c r="AA33" s="157"/>
-      <c r="AC33" s="170" t="s">
+      <c r="V33" s="145"/>
+      <c r="W33" s="145"/>
+      <c r="X33" s="145"/>
+      <c r="Y33" s="145"/>
+      <c r="Z33" s="145"/>
+      <c r="AA33" s="146"/>
+      <c r="AC33" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="AD33" s="156"/>
-      <c r="AE33" s="156"/>
-      <c r="AF33" s="156"/>
-      <c r="AG33" s="156"/>
-      <c r="AH33" s="156"/>
-      <c r="AI33" s="156"/>
-      <c r="AJ33" s="157"/>
+      <c r="AD33" s="145"/>
+      <c r="AE33" s="145"/>
+      <c r="AF33" s="145"/>
+      <c r="AG33" s="145"/>
+      <c r="AH33" s="145"/>
+      <c r="AI33" s="145"/>
+      <c r="AJ33" s="146"/>
     </row>
     <row r="34" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34" s="63" t="s">
@@ -4185,23 +6058,23 @@
       <c r="F34" s="44"/>
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
-      <c r="S34" s="166"/>
-      <c r="T34" s="167"/>
-      <c r="U34" s="158"/>
-      <c r="V34" s="159"/>
-      <c r="W34" s="159"/>
-      <c r="X34" s="159"/>
-      <c r="Y34" s="159"/>
-      <c r="Z34" s="159"/>
-      <c r="AA34" s="160"/>
-      <c r="AC34" s="171"/>
-      <c r="AD34" s="159"/>
-      <c r="AE34" s="159"/>
-      <c r="AF34" s="159"/>
-      <c r="AG34" s="159"/>
-      <c r="AH34" s="159"/>
-      <c r="AI34" s="159"/>
-      <c r="AJ34" s="160"/>
+      <c r="S34" s="155"/>
+      <c r="T34" s="156"/>
+      <c r="U34" s="147"/>
+      <c r="V34" s="148"/>
+      <c r="W34" s="148"/>
+      <c r="X34" s="148"/>
+      <c r="Y34" s="148"/>
+      <c r="Z34" s="148"/>
+      <c r="AA34" s="149"/>
+      <c r="AC34" s="160"/>
+      <c r="AD34" s="148"/>
+      <c r="AE34" s="148"/>
+      <c r="AF34" s="148"/>
+      <c r="AG34" s="148"/>
+      <c r="AH34" s="148"/>
+      <c r="AI34" s="148"/>
+      <c r="AJ34" s="149"/>
     </row>
     <row r="35" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="63" t="s">
@@ -4217,23 +6090,23 @@
       <c r="F35" s="44"/>
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
-      <c r="S35" s="166"/>
-      <c r="T35" s="167"/>
-      <c r="U35" s="158"/>
-      <c r="V35" s="159"/>
-      <c r="W35" s="159"/>
-      <c r="X35" s="159"/>
-      <c r="Y35" s="159"/>
-      <c r="Z35" s="159"/>
-      <c r="AA35" s="160"/>
-      <c r="AC35" s="171"/>
-      <c r="AD35" s="159"/>
-      <c r="AE35" s="159"/>
-      <c r="AF35" s="159"/>
-      <c r="AG35" s="159"/>
-      <c r="AH35" s="159"/>
-      <c r="AI35" s="159"/>
-      <c r="AJ35" s="160"/>
+      <c r="S35" s="155"/>
+      <c r="T35" s="156"/>
+      <c r="U35" s="147"/>
+      <c r="V35" s="148"/>
+      <c r="W35" s="148"/>
+      <c r="X35" s="148"/>
+      <c r="Y35" s="148"/>
+      <c r="Z35" s="148"/>
+      <c r="AA35" s="149"/>
+      <c r="AC35" s="160"/>
+      <c r="AD35" s="148"/>
+      <c r="AE35" s="148"/>
+      <c r="AF35" s="148"/>
+      <c r="AG35" s="148"/>
+      <c r="AH35" s="148"/>
+      <c r="AI35" s="148"/>
+      <c r="AJ35" s="149"/>
     </row>
     <row r="36" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A36" s="63" t="s">
@@ -4249,29 +6122,29 @@
       <c r="F36" s="44"/>
       <c r="G36" s="44"/>
       <c r="H36" s="44"/>
-      <c r="S36" s="166"/>
-      <c r="T36" s="167"/>
-      <c r="U36" s="158"/>
-      <c r="V36" s="159"/>
-      <c r="W36" s="159"/>
-      <c r="X36" s="159"/>
-      <c r="Y36" s="159"/>
-      <c r="Z36" s="159"/>
-      <c r="AA36" s="160"/>
-      <c r="AC36" s="171"/>
-      <c r="AD36" s="159"/>
-      <c r="AE36" s="159"/>
-      <c r="AF36" s="159"/>
-      <c r="AG36" s="159"/>
-      <c r="AH36" s="159"/>
-      <c r="AI36" s="159"/>
-      <c r="AJ36" s="160"/>
+      <c r="S36" s="155"/>
+      <c r="T36" s="156"/>
+      <c r="U36" s="147"/>
+      <c r="V36" s="148"/>
+      <c r="W36" s="148"/>
+      <c r="X36" s="148"/>
+      <c r="Y36" s="148"/>
+      <c r="Z36" s="148"/>
+      <c r="AA36" s="149"/>
+      <c r="AC36" s="160"/>
+      <c r="AD36" s="148"/>
+      <c r="AE36" s="148"/>
+      <c r="AF36" s="148"/>
+      <c r="AG36" s="148"/>
+      <c r="AH36" s="148"/>
+      <c r="AI36" s="148"/>
+      <c r="AJ36" s="149"/>
     </row>
     <row r="37" spans="1:36" ht="38.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="142" t="s">
+      <c r="A37" s="174" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="142"/>
+      <c r="B37" s="174"/>
       <c r="C37" s="63">
         <f>COUNTIF(D25:AG25,"&gt;0")</f>
         <v>20</v>
@@ -4281,23 +6154,23 @@
       <c r="F37" s="44"/>
       <c r="G37" s="44"/>
       <c r="H37" s="44"/>
-      <c r="S37" s="168"/>
-      <c r="T37" s="169"/>
-      <c r="U37" s="161"/>
-      <c r="V37" s="162"/>
-      <c r="W37" s="162"/>
-      <c r="X37" s="162"/>
-      <c r="Y37" s="162"/>
-      <c r="Z37" s="162"/>
-      <c r="AA37" s="163"/>
-      <c r="AC37" s="172"/>
-      <c r="AD37" s="162"/>
-      <c r="AE37" s="162"/>
-      <c r="AF37" s="162"/>
-      <c r="AG37" s="162"/>
-      <c r="AH37" s="162"/>
-      <c r="AI37" s="162"/>
-      <c r="AJ37" s="163"/>
+      <c r="S37" s="157"/>
+      <c r="T37" s="158"/>
+      <c r="U37" s="150"/>
+      <c r="V37" s="151"/>
+      <c r="W37" s="151"/>
+      <c r="X37" s="151"/>
+      <c r="Y37" s="151"/>
+      <c r="Z37" s="151"/>
+      <c r="AA37" s="152"/>
+      <c r="AC37" s="161"/>
+      <c r="AD37" s="151"/>
+      <c r="AE37" s="151"/>
+      <c r="AF37" s="151"/>
+      <c r="AG37" s="151"/>
+      <c r="AH37" s="151"/>
+      <c r="AI37" s="151"/>
+      <c r="AJ37" s="152"/>
     </row>
     <row r="38" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A38" s="63" t="s">
@@ -4337,10 +6210,10 @@
       <c r="H40" s="44"/>
     </row>
     <row r="41" spans="1:36" ht="35.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="142" t="s">
+      <c r="A41" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="142"/>
+      <c r="B41" s="174"/>
       <c r="C41" s="63">
         <f>AH25</f>
         <v>160</v>
@@ -4352,10 +6225,10 @@
       <c r="H41" s="44"/>
     </row>
     <row r="42" spans="1:36" ht="38.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="142" t="s">
+      <c r="A42" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="142"/>
+      <c r="B42" s="174"/>
       <c r="C42" s="63">
         <v>45</v>
       </c>
@@ -4484,6 +6357,15 @@
     <row r="53" spans="1:10" ht="169" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="AH9:AH10"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="N6:Q6"/>
@@ -4498,15 +6380,6 @@
     <mergeCell ref="AC27:AJ27"/>
     <mergeCell ref="AC28:AJ32"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="expression" dxfId="11" priority="26">
@@ -4549,16 +6422,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA136F23-B726-450C-8838-7114D5303DC9}">
-  <dimension ref="A1:AJ57"/>
+  <dimension ref="A1:AJ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" style="42" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" style="45" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" style="42" customWidth="1"/>
+    <col min="2" max="2" width="40.08984375" style="45" customWidth="1"/>
     <col min="3" max="3" width="10.54296875" style="42" customWidth="1"/>
     <col min="4" max="4" width="9.54296875" style="4" customWidth="1"/>
     <col min="5" max="7" width="7.81640625" style="4" bestFit="1" customWidth="1"/>
@@ -4571,7 +6444,7 @@
     <col min="18" max="23" width="7.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8" style="4" customWidth="1"/>
     <col min="25" max="33" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="7.1796875" style="4" customWidth="1"/>
     <col min="36" max="36" width="11.54296875" style="4" customWidth="1"/>
     <col min="37" max="16384" width="8.7265625" style="4"/>
@@ -4692,19 +6565,19 @@
       </c>
       <c r="L5" s="78"/>
       <c r="M5" s="78"/>
-      <c r="N5" s="153" t="s">
+      <c r="N5" s="142" t="s">
         <v>167</v>
       </c>
-      <c r="O5" s="153"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="142"/>
     </row>
     <row r="6" spans="1:36" ht="17" x14ac:dyDescent="0.4">
       <c r="A6" s="74" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C6" s="76"/>
       <c r="D6" s="83" t="s">
@@ -4722,12 +6595,12 @@
       </c>
       <c r="L6" s="87"/>
       <c r="M6" s="76"/>
-      <c r="N6" s="152" t="s">
+      <c r="N6" s="141" t="s">
         <v>166</v>
       </c>
-      <c r="O6" s="152"/>
-      <c r="P6" s="152"/>
-      <c r="Q6" s="152"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
       <c r="W6"/>
     </row>
     <row r="7" spans="1:36" s="42" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -4750,13 +6623,13 @@
       <c r="Q7" s="76"/>
     </row>
     <row r="9" spans="1:36" ht="17" x14ac:dyDescent="0.35">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="175" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="50" t="str">
@@ -4803,11 +6676,11 @@
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="O9" s="50" t="str">
+      <c r="O9" s="57" t="str">
         <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
-      <c r="P9" s="50" t="str">
+      <c r="P9" s="57" t="str">
         <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
@@ -4819,7 +6692,7 @@
         <f t="shared" si="0"/>
         <v>Sun</v>
       </c>
-      <c r="S9" s="50" t="str">
+      <c r="S9" s="57" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
@@ -4883,7 +6756,7 @@
         <f t="shared" si="0"/>
         <v>Tue</v>
       </c>
-      <c r="AI9" s="144" t="s">
+      <c r="AI9" s="139" t="s">
         <v>23</v>
       </c>
       <c r="AJ9" s="90" t="s">
@@ -4891,9 +6764,9 @@
       </c>
     </row>
     <row r="10" spans="1:36" ht="17" x14ac:dyDescent="0.35">
-      <c r="A10" s="143"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="143"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="175"/>
       <c r="D10" s="51" cm="1">
         <f t="array" ref="D10:AH10">IFERROR(IF(OR((B3-B2+1)&gt;31,B2="",B3=""),"",_xlfn.SEQUENCE(,B3-B2+1,B2)),"")</f>
         <v>45585</v>
@@ -4928,10 +6801,10 @@
       <c r="N10" s="52">
         <v>45595</v>
       </c>
-      <c r="O10" s="52">
+      <c r="O10" s="51">
         <v>45596</v>
       </c>
-      <c r="P10" s="52">
+      <c r="P10" s="51">
         <v>45597</v>
       </c>
       <c r="Q10" s="52">
@@ -4940,7 +6813,7 @@
       <c r="R10" s="52">
         <v>45599</v>
       </c>
-      <c r="S10" s="52">
+      <c r="S10" s="51">
         <v>45600</v>
       </c>
       <c r="T10" s="52">
@@ -4988,7 +6861,7 @@
       <c r="AH10" s="51">
         <v>45615</v>
       </c>
-      <c r="AI10" s="144"/>
+      <c r="AI10" s="139"/>
       <c r="AJ10" s="90"/>
     </row>
     <row r="11" spans="1:36" ht="17" x14ac:dyDescent="0.4">
@@ -5031,103 +6904,63 @@
       <c r="AI11" s="55"/>
       <c r="AJ11" s="73"/>
     </row>
-    <row r="12" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A12" s="88"/>
-      <c r="B12" s="89" t="s">
-        <v>168</v>
+    <row r="12" spans="1:36" ht="68" x14ac:dyDescent="0.4">
+      <c r="A12" s="205" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="202" t="s">
+        <v>189</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="57">
-        <v>1</v>
-      </c>
-      <c r="F12" s="57">
-        <v>1</v>
-      </c>
-      <c r="G12" s="50">
-        <v>1</v>
-      </c>
-      <c r="H12" s="57">
-        <v>1</v>
-      </c>
-      <c r="I12" s="50">
-        <v>1</v>
-      </c>
+      <c r="E12" s="200">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="57"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="50"/>
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
-      <c r="L12" s="50">
-        <v>1</v>
-      </c>
-      <c r="M12" s="50">
-        <v>1</v>
-      </c>
-      <c r="N12" s="50">
-        <v>1</v>
-      </c>
-      <c r="O12" s="50">
-        <v>1</v>
-      </c>
-      <c r="P12" s="50">
-        <v>1</v>
-      </c>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
       <c r="Q12" s="50"/>
       <c r="R12" s="50"/>
-      <c r="S12" s="50">
-        <v>1</v>
-      </c>
-      <c r="T12" s="50">
-        <v>1</v>
-      </c>
-      <c r="U12" s="50">
-        <v>1</v>
-      </c>
-      <c r="V12" s="50">
-        <v>1</v>
-      </c>
-      <c r="W12" s="50">
-        <v>1</v>
-      </c>
+      <c r="S12" s="57"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="50"/>
-      <c r="Z12" s="50">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="50">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="50">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="50">
-        <v>1</v>
-      </c>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
       <c r="AE12" s="50"/>
       <c r="AF12" s="57"/>
-      <c r="AG12" s="57">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="57">
-        <v>1</v>
-      </c>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="57"/>
       <c r="AI12" s="58">
-        <f>SUM(D12:AH12)</f>
-        <v>22</v>
+        <f t="shared" ref="AI12:AI45" si="1">SUM(D12:AH12)</f>
+        <v>1.5</v>
       </c>
       <c r="AJ12" s="73"/>
     </row>
-    <row r="13" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A13" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="89" t="s">
-        <v>174</v>
+    <row r="13" spans="1:36" ht="51" x14ac:dyDescent="0.4">
+      <c r="A13" s="206"/>
+      <c r="B13" s="202" t="s">
+        <v>190</v>
       </c>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
+      <c r="E13" s="200">
+        <v>1.5</v>
+      </c>
       <c r="F13" s="57"/>
       <c r="G13" s="50"/>
       <c r="H13" s="57"/>
@@ -5137,11 +6970,11 @@
       <c r="L13" s="50"/>
       <c r="M13" s="50"/>
       <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
       <c r="Q13" s="50"/>
       <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
+      <c r="S13" s="57"/>
       <c r="T13" s="50"/>
       <c r="U13" s="50"/>
       <c r="V13" s="50"/>
@@ -5158,21 +6991,21 @@
       <c r="AG13" s="57"/>
       <c r="AH13" s="57"/>
       <c r="AI13" s="58">
-        <f t="shared" ref="AI13:AI20" si="1">SUM(D13:AH13)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.5</v>
       </c>
       <c r="AJ13" s="73"/>
     </row>
-    <row r="14" spans="1:36" ht="34" x14ac:dyDescent="0.4">
-      <c r="A14" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="B14" s="89" t="s">
-        <v>175</v>
+    <row r="14" spans="1:36" ht="51" x14ac:dyDescent="0.4">
+      <c r="A14" s="206"/>
+      <c r="B14" s="202" t="s">
+        <v>191</v>
       </c>
       <c r="C14" s="57"/>
       <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
+      <c r="E14" s="200">
+        <v>1.5</v>
+      </c>
       <c r="F14" s="57"/>
       <c r="G14" s="50"/>
       <c r="H14" s="57"/>
@@ -5182,11 +7015,11 @@
       <c r="L14" s="50"/>
       <c r="M14" s="50"/>
       <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
       <c r="Q14" s="50"/>
       <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
+      <c r="S14" s="57"/>
       <c r="T14" s="50"/>
       <c r="U14" s="50"/>
       <c r="V14" s="50"/>
@@ -5204,18 +7037,20 @@
       <c r="AH14" s="57"/>
       <c r="AI14" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AJ14" s="73"/>
     </row>
-    <row r="15" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89" t="s">
-        <v>179</v>
+    <row r="15" spans="1:36" ht="68" x14ac:dyDescent="0.4">
+      <c r="A15" s="206"/>
+      <c r="B15" s="203" t="s">
+        <v>192</v>
       </c>
       <c r="C15" s="57"/>
       <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
+      <c r="E15" s="200">
+        <v>2.5</v>
+      </c>
       <c r="F15" s="57"/>
       <c r="G15" s="50"/>
       <c r="H15" s="57"/>
@@ -5225,11 +7060,11 @@
       <c r="L15" s="50"/>
       <c r="M15" s="50"/>
       <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
       <c r="Q15" s="50"/>
       <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
+      <c r="S15" s="57"/>
       <c r="T15" s="50"/>
       <c r="U15" s="50"/>
       <c r="V15" s="50"/>
@@ -5245,21 +7080,26 @@
       <c r="AF15" s="57"/>
       <c r="AG15" s="57"/>
       <c r="AH15" s="57"/>
-      <c r="AI15" s="58"/>
+      <c r="AI15" s="58">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
       <c r="AJ15" s="73"/>
     </row>
-    <row r="16" spans="1:36" ht="51" x14ac:dyDescent="0.4">
-      <c r="A16" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="81" t="s">
-        <v>180</v>
+    <row r="16" spans="1:36" ht="102" x14ac:dyDescent="0.4">
+      <c r="A16" s="206"/>
+      <c r="B16" s="201" t="s">
+        <v>172</v>
       </c>
       <c r="C16" s="57"/>
       <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="50"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="57">
+        <v>2</v>
+      </c>
+      <c r="G16" s="50">
+        <v>1.5</v>
+      </c>
       <c r="H16" s="57"/>
       <c r="I16" s="50"/>
       <c r="J16" s="50"/>
@@ -5267,11 +7107,11 @@
       <c r="L16" s="50"/>
       <c r="M16" s="50"/>
       <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
       <c r="Q16" s="50"/>
       <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
+      <c r="S16" s="57"/>
       <c r="T16" s="50"/>
       <c r="U16" s="50"/>
       <c r="V16" s="50"/>
@@ -5289,22 +7129,24 @@
       <c r="AH16" s="57"/>
       <c r="AI16" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AJ16" s="73"/>
     </row>
-    <row r="17" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A17" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>176</v>
+    <row r="17" spans="1:36" ht="102" x14ac:dyDescent="0.4">
+      <c r="A17" s="206"/>
+      <c r="B17" s="201" t="s">
+        <v>173</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="50"/>
+      <c r="E17" s="200"/>
+      <c r="F17" s="57">
+        <v>1.5</v>
+      </c>
+      <c r="G17" s="50">
+        <v>1.5</v>
+      </c>
       <c r="H17" s="57"/>
       <c r="I17" s="50"/>
       <c r="J17" s="50"/>
@@ -5312,11 +7154,11 @@
       <c r="L17" s="50"/>
       <c r="M17" s="50"/>
       <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="139"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
       <c r="Q17" s="50"/>
       <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
+      <c r="S17" s="57"/>
       <c r="T17" s="50"/>
       <c r="U17" s="50"/>
       <c r="V17" s="50"/>
@@ -5334,22 +7176,24 @@
       <c r="AH17" s="57"/>
       <c r="AI17" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ17" s="73"/>
     </row>
-    <row r="18" spans="1:36" ht="34" x14ac:dyDescent="0.4">
-      <c r="A18" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>178</v>
+    <row r="18" spans="1:36" ht="102" x14ac:dyDescent="0.4">
+      <c r="A18" s="206"/>
+      <c r="B18" s="201" t="s">
+        <v>174</v>
       </c>
       <c r="C18" s="57"/>
       <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="50"/>
+      <c r="E18" s="200"/>
+      <c r="F18" s="57">
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="50">
+        <v>1.5</v>
+      </c>
       <c r="H18" s="57"/>
       <c r="I18" s="50"/>
       <c r="J18" s="50"/>
@@ -5357,11 +7201,11 @@
       <c r="L18" s="50"/>
       <c r="M18" s="50"/>
       <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
       <c r="Q18" s="50"/>
       <c r="R18" s="50"/>
-      <c r="S18" s="140"/>
+      <c r="S18" s="57"/>
       <c r="T18" s="50"/>
       <c r="U18" s="50"/>
       <c r="V18" s="50"/>
@@ -5377,33 +7221,42 @@
       <c r="AF18" s="57"/>
       <c r="AG18" s="57"/>
       <c r="AH18" s="57"/>
-      <c r="AI18" s="58"/>
+      <c r="AI18" s="58">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="AJ18" s="73"/>
     </row>
-    <row r="19" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A19" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" s="141" t="s">
-        <v>177</v>
+    <row r="19" spans="1:36" ht="170" x14ac:dyDescent="0.4">
+      <c r="A19" s="206"/>
+      <c r="B19" s="201" t="s">
+        <v>175</v>
       </c>
       <c r="C19" s="57"/>
       <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="50"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="57">
+        <v>2</v>
+      </c>
+      <c r="G19" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="H19" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="50">
+        <v>0.5</v>
+      </c>
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
       <c r="L19" s="50"/>
       <c r="M19" s="50"/>
       <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
+      <c r="S19" s="57"/>
       <c r="T19" s="50"/>
       <c r="U19" s="50"/>
       <c r="V19" s="50"/>
@@ -5419,29 +7272,42 @@
       <c r="AF19" s="57"/>
       <c r="AG19" s="57"/>
       <c r="AH19" s="57"/>
-      <c r="AI19" s="58"/>
+      <c r="AI19" s="58">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
       <c r="AJ19" s="73"/>
     </row>
-    <row r="20" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A20" s="88"/>
-      <c r="B20" s="81"/>
+    <row r="20" spans="1:36" ht="119" x14ac:dyDescent="0.4">
+      <c r="A20" s="206"/>
+      <c r="B20" s="201" t="s">
+        <v>176</v>
+      </c>
       <c r="C20" s="57"/>
       <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
+      <c r="E20" s="200"/>
       <c r="F20" s="57"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="50"/>
+      <c r="G20" s="50">
+        <v>1</v>
+      </c>
+      <c r="H20" s="57">
+        <v>2</v>
+      </c>
+      <c r="I20" s="50">
+        <v>2</v>
+      </c>
       <c r="J20" s="50"/>
       <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
+      <c r="L20" s="50">
+        <v>0.5</v>
+      </c>
       <c r="M20" s="50"/>
       <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
+      <c r="S20" s="57"/>
       <c r="T20" s="50"/>
       <c r="U20" s="50"/>
       <c r="V20" s="50"/>
@@ -5459,72 +7325,91 @@
       <c r="AH20" s="57"/>
       <c r="AI20" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AJ20" s="73"/>
     </row>
-    <row r="21" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A21" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="55"/>
+    <row r="21" spans="1:36" ht="119" x14ac:dyDescent="0.4">
+      <c r="A21" s="206"/>
+      <c r="B21" s="201" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="57">
+        <v>1.5</v>
+      </c>
+      <c r="I21" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="M21" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="N21" s="50"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="57"/>
+      <c r="AG21" s="57"/>
+      <c r="AH21" s="57"/>
+      <c r="AI21" s="58">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="AJ21" s="73"/>
     </row>
-    <row r="22" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A22" s="67"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="57" t="s">
-        <v>34</v>
-      </c>
+    <row r="22" spans="1:36" ht="119" x14ac:dyDescent="0.4">
+      <c r="A22" s="206"/>
+      <c r="B22" s="201" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="57"/>
       <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
+      <c r="E22" s="200"/>
       <c r="F22" s="57"/>
       <c r="G22" s="50"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="50"/>
+      <c r="H22" s="57">
+        <v>1.5</v>
+      </c>
+      <c r="I22" s="50">
+        <v>1.5</v>
+      </c>
       <c r="J22" s="50"/>
       <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
+      <c r="L22" s="50">
+        <v>2</v>
+      </c>
+      <c r="M22" s="50">
+        <v>1.5</v>
+      </c>
       <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
       <c r="Q22" s="50"/>
       <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
+      <c r="S22" s="57"/>
       <c r="T22" s="50"/>
       <c r="U22" s="50"/>
       <c r="V22" s="50"/>
@@ -5541,33 +7426,41 @@
       <c r="AG22" s="57"/>
       <c r="AH22" s="57"/>
       <c r="AI22" s="58">
-        <f>SUM(D22:AH22)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.5</v>
       </c>
       <c r="AJ22" s="73"/>
     </row>
-    <row r="23" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A23" s="67"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="57" t="s">
-        <v>36</v>
-      </c>
+    <row r="23" spans="1:36" ht="170" x14ac:dyDescent="0.4">
+      <c r="A23" s="206"/>
+      <c r="B23" s="201" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="57"/>
       <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
+      <c r="E23" s="200"/>
       <c r="F23" s="57"/>
       <c r="G23" s="50"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="50"/>
+      <c r="H23" s="57">
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="50">
+        <v>1.5</v>
+      </c>
       <c r="J23" s="50"/>
       <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
+      <c r="L23" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="M23" s="50">
+        <v>2</v>
+      </c>
       <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
       <c r="Q23" s="50"/>
       <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
+      <c r="S23" s="57"/>
       <c r="T23" s="50"/>
       <c r="U23" s="50"/>
       <c r="V23" s="50"/>
@@ -5584,33 +7477,37 @@
       <c r="AG23" s="57"/>
       <c r="AH23" s="57"/>
       <c r="AI23" s="58">
-        <f>SUM(D23:AH23)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.5</v>
       </c>
       <c r="AJ23" s="73"/>
     </row>
-    <row r="24" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A24" s="67"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57" t="s">
-        <v>37</v>
-      </c>
+    <row r="24" spans="1:36" ht="85" x14ac:dyDescent="0.4">
+      <c r="A24" s="206"/>
+      <c r="B24" s="204" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="57"/>
       <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
+      <c r="E24" s="200"/>
       <c r="F24" s="57"/>
       <c r="G24" s="50"/>
       <c r="H24" s="57"/>
       <c r="I24" s="50"/>
       <c r="J24" s="50"/>
       <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
+      <c r="L24" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="M24" s="50">
+        <v>2</v>
+      </c>
       <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
       <c r="Q24" s="50"/>
       <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
+      <c r="S24" s="57"/>
       <c r="T24" s="50"/>
       <c r="U24" s="50"/>
       <c r="V24" s="50"/>
@@ -5627,57 +7524,66 @@
       <c r="AG24" s="57"/>
       <c r="AH24" s="57"/>
       <c r="AI24" s="58">
-        <f>SUM(D24:AH24)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.5</v>
       </c>
       <c r="AJ24" s="73"/>
     </row>
-    <row r="25" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="68"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="61"/>
-      <c r="V25" s="61"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="61"/>
-      <c r="Z25" s="61"/>
-      <c r="AA25" s="61"/>
-      <c r="AB25" s="61"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="61"/>
-      <c r="AF25" s="61"/>
-      <c r="AG25" s="62"/>
-      <c r="AH25" s="62"/>
-      <c r="AI25" s="62"/>
+    <row r="25" spans="1:36" ht="119" x14ac:dyDescent="0.4">
+      <c r="A25" s="206"/>
+      <c r="B25" s="201" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="200"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50">
+        <v>1</v>
+      </c>
+      <c r="O25" s="57">
+        <v>1</v>
+      </c>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="57"/>
+      <c r="AI25" s="58">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="AJ25" s="73"/>
     </row>
-    <row r="26" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A26" s="145" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="146"/>
-      <c r="C26" s="147"/>
+    <row r="26" spans="1:36" ht="119" x14ac:dyDescent="0.4">
+      <c r="A26" s="206"/>
+      <c r="B26" s="201" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="57"/>
       <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
+      <c r="E26" s="200"/>
       <c r="F26" s="57"/>
       <c r="G26" s="50"/>
       <c r="H26" s="57"/>
@@ -5686,12 +7592,16 @@
       <c r="K26" s="50"/>
       <c r="L26" s="50"/>
       <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
+      <c r="N26" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="O26" s="57">
+        <v>1.5</v>
+      </c>
+      <c r="P26" s="57"/>
       <c r="Q26" s="50"/>
       <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
+      <c r="S26" s="57"/>
       <c r="T26" s="50"/>
       <c r="U26" s="50"/>
       <c r="V26" s="50"/>
@@ -5708,19 +7618,19 @@
       <c r="AG26" s="57"/>
       <c r="AH26" s="57"/>
       <c r="AI26" s="58">
-        <f>SUM(D26:AH26)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="AJ26" s="73"/>
     </row>
-    <row r="27" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A27" s="145" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="146"/>
-      <c r="C27" s="147"/>
+    <row r="27" spans="1:36" ht="119" x14ac:dyDescent="0.4">
+      <c r="A27" s="206"/>
+      <c r="B27" s="201" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="57"/>
       <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
+      <c r="E27" s="200"/>
       <c r="F27" s="57"/>
       <c r="G27" s="50"/>
       <c r="H27" s="57"/>
@@ -5729,12 +7639,16 @@
       <c r="K27" s="50"/>
       <c r="L27" s="50"/>
       <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
+      <c r="N27" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="O27" s="57">
+        <v>1.5</v>
+      </c>
+      <c r="P27" s="57"/>
       <c r="Q27" s="50"/>
       <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
+      <c r="S27" s="57"/>
       <c r="T27" s="50"/>
       <c r="U27" s="50"/>
       <c r="V27" s="50"/>
@@ -5751,19 +7665,19 @@
       <c r="AG27" s="57"/>
       <c r="AH27" s="57"/>
       <c r="AI27" s="58">
-        <f>SUM(D27:AH27)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="AJ27" s="73"/>
     </row>
-    <row r="28" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A28" s="148" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="149"/>
-      <c r="C28" s="150"/>
+    <row r="28" spans="1:36" ht="119" x14ac:dyDescent="0.4">
+      <c r="A28" s="206"/>
+      <c r="B28" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="57"/>
       <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
+      <c r="E28" s="200"/>
       <c r="F28" s="57"/>
       <c r="G28" s="50"/>
       <c r="H28" s="57"/>
@@ -5772,12 +7686,16 @@
       <c r="K28" s="50"/>
       <c r="L28" s="50"/>
       <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
+      <c r="N28" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="O28" s="57">
+        <v>1.5</v>
+      </c>
+      <c r="P28" s="57"/>
       <c r="Q28" s="50"/>
       <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
+      <c r="S28" s="57"/>
       <c r="T28" s="50"/>
       <c r="U28" s="50"/>
       <c r="V28" s="50"/>
@@ -5794,696 +7712,1945 @@
       <c r="AG28" s="57"/>
       <c r="AH28" s="57"/>
       <c r="AI28" s="58">
-        <f>SUM(D28:AH28)</f>
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AJ28" s="73"/>
+    </row>
+    <row r="29" spans="1:36" ht="119" x14ac:dyDescent="0.4">
+      <c r="A29" s="206"/>
+      <c r="B29" s="201" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="200"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="O29" s="57">
+        <v>1.5</v>
+      </c>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="50"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="57"/>
+      <c r="AG29" s="57"/>
+      <c r="AH29" s="57"/>
+      <c r="AI29" s="58">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AJ29" s="73"/>
+    </row>
+    <row r="30" spans="1:36" ht="85" x14ac:dyDescent="0.4">
+      <c r="A30" s="206"/>
+      <c r="B30" s="201" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="200"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="57"/>
+      <c r="AG30" s="57"/>
+      <c r="AH30" s="57"/>
+      <c r="AI30" s="58">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AJ30" s="73"/>
+    </row>
+    <row r="31" spans="1:36" ht="34" x14ac:dyDescent="0.4">
+      <c r="A31" s="206"/>
+      <c r="B31" s="201" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="200"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="50"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="57"/>
+      <c r="AG31" s="57"/>
+      <c r="AH31" s="57"/>
+      <c r="AI31" s="58">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AJ31" s="73"/>
+    </row>
+    <row r="32" spans="1:36" ht="68" x14ac:dyDescent="0.4">
+      <c r="A32" s="206"/>
+      <c r="B32" s="201" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="200"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="57">
+        <v>1</v>
+      </c>
+      <c r="T32" s="50">
+        <v>1</v>
+      </c>
+      <c r="U32" s="50">
+        <v>1</v>
+      </c>
+      <c r="V32" s="50">
+        <v>1</v>
+      </c>
+      <c r="W32" s="50">
+        <v>1</v>
+      </c>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="50"/>
+      <c r="AE32" s="50"/>
+      <c r="AF32" s="57"/>
+      <c r="AG32" s="57"/>
+      <c r="AH32" s="57"/>
+      <c r="AI32" s="58">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AJ32" s="73"/>
+    </row>
+    <row r="33" spans="1:36" ht="34" x14ac:dyDescent="0.4">
+      <c r="A33" s="206"/>
+      <c r="B33" s="201" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="200"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="57">
+        <v>4</v>
+      </c>
+      <c r="T33" s="50">
+        <v>4</v>
+      </c>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="50"/>
+      <c r="AE33" s="50"/>
+      <c r="AF33" s="57"/>
+      <c r="AG33" s="57"/>
+      <c r="AH33" s="57"/>
+      <c r="AI33" s="58">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AJ33" s="73"/>
+    </row>
+    <row r="34" spans="1:36" ht="34" x14ac:dyDescent="0.4">
+      <c r="A34" s="206"/>
+      <c r="B34" s="201" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="200"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="V34" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="W34" s="50">
+        <v>1</v>
+      </c>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="50"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="57"/>
+      <c r="AG34" s="57"/>
+      <c r="AH34" s="57"/>
+      <c r="AI34" s="58">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AJ34" s="73"/>
+    </row>
+    <row r="35" spans="1:36" ht="68" x14ac:dyDescent="0.4">
+      <c r="A35" s="206"/>
+      <c r="B35" s="202" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="200"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50">
+        <v>1</v>
+      </c>
+      <c r="V35" s="50">
+        <v>1</v>
+      </c>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="50"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="57"/>
+      <c r="AG35" s="57"/>
+      <c r="AH35" s="57"/>
+      <c r="AI35" s="58">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AJ35" s="73"/>
+    </row>
+    <row r="36" spans="1:36" ht="51" x14ac:dyDescent="0.4">
+      <c r="A36" s="206"/>
+      <c r="B36" s="202" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="50">
+        <v>1</v>
+      </c>
+      <c r="V36" s="50">
+        <v>1</v>
+      </c>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="50"/>
+      <c r="AE36" s="50"/>
+      <c r="AF36" s="57"/>
+      <c r="AG36" s="57"/>
+      <c r="AH36" s="57"/>
+      <c r="AI36" s="58">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AJ36" s="73"/>
+    </row>
+    <row r="37" spans="1:36" ht="51" x14ac:dyDescent="0.4">
+      <c r="A37" s="206"/>
+      <c r="B37" s="202" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="X37" s="50"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="AA37" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="50"/>
+      <c r="AE37" s="50"/>
+      <c r="AF37" s="57"/>
+      <c r="AG37" s="57"/>
+      <c r="AH37" s="57"/>
+      <c r="AI37" s="58">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="AJ37" s="73"/>
+    </row>
+    <row r="38" spans="1:36" ht="68" x14ac:dyDescent="0.4">
+      <c r="A38" s="206"/>
+      <c r="B38" s="202" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="200"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="V38" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="W38" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="AA38" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="AB38" s="50"/>
+      <c r="AC38" s="50"/>
+      <c r="AD38" s="50"/>
+      <c r="AE38" s="50"/>
+      <c r="AF38" s="57"/>
+      <c r="AG38" s="57"/>
+      <c r="AH38" s="57"/>
+      <c r="AI38" s="58">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="AJ38" s="73"/>
+    </row>
+    <row r="39" spans="1:36" ht="51" x14ac:dyDescent="0.4">
+      <c r="A39" s="206"/>
+      <c r="B39" s="202" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="200"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="V39" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="W39" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="AA39" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="AB39" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AE39" s="50"/>
+      <c r="AF39" s="57"/>
+      <c r="AG39" s="57"/>
+      <c r="AH39" s="57"/>
+      <c r="AI39" s="58">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="AJ39" s="73"/>
+    </row>
+    <row r="40" spans="1:36" ht="51" x14ac:dyDescent="0.4">
+      <c r="A40" s="206"/>
+      <c r="B40" s="202" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="200"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="V40" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="W40" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="AA40" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="AB40" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="50"/>
+      <c r="AD40" s="50"/>
+      <c r="AE40" s="50"/>
+      <c r="AF40" s="57"/>
+      <c r="AG40" s="57"/>
+      <c r="AH40" s="57"/>
+      <c r="AI40" s="58">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="AJ40" s="73"/>
+    </row>
+    <row r="41" spans="1:36" ht="51" x14ac:dyDescent="0.4">
+      <c r="A41" s="206"/>
+      <c r="B41" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="200"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="57">
+        <v>2</v>
+      </c>
+      <c r="T41" s="50">
+        <v>2</v>
+      </c>
+      <c r="U41" s="50">
+        <v>2</v>
+      </c>
+      <c r="V41" s="50">
+        <v>2</v>
+      </c>
+      <c r="W41" s="50">
+        <v>2</v>
+      </c>
+      <c r="X41" s="50"/>
+      <c r="Y41" s="50"/>
+      <c r="Z41" s="50">
+        <v>2</v>
+      </c>
+      <c r="AA41" s="50">
+        <v>2</v>
+      </c>
+      <c r="AB41" s="50">
+        <v>2</v>
+      </c>
+      <c r="AC41" s="50">
+        <v>2</v>
+      </c>
+      <c r="AD41" s="50">
+        <v>2</v>
+      </c>
+      <c r="AE41" s="50"/>
+      <c r="AF41" s="57"/>
+      <c r="AG41" s="57">
+        <v>2</v>
+      </c>
+      <c r="AH41" s="57">
+        <v>4</v>
+      </c>
+      <c r="AI41" s="58">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="AJ41" s="73"/>
+    </row>
+    <row r="42" spans="1:36" ht="51" x14ac:dyDescent="0.4">
+      <c r="A42" s="206"/>
+      <c r="B42" s="89" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="200"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="50"/>
+      <c r="V42" s="50"/>
+      <c r="W42" s="50"/>
+      <c r="X42" s="50"/>
+      <c r="Y42" s="50"/>
+      <c r="Z42" s="50"/>
+      <c r="AA42" s="50"/>
+      <c r="AB42" s="50"/>
+      <c r="AC42" s="50">
+        <v>2</v>
+      </c>
+      <c r="AD42" s="50">
+        <v>2</v>
+      </c>
+      <c r="AE42" s="50"/>
+      <c r="AF42" s="57"/>
+      <c r="AG42" s="57">
+        <v>2</v>
+      </c>
+      <c r="AH42" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="58">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AJ42" s="73"/>
+    </row>
+    <row r="43" spans="1:36" ht="34" x14ac:dyDescent="0.4">
+      <c r="A43" s="206"/>
+      <c r="B43" s="201" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="200"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="57"/>
+      <c r="T43" s="50"/>
+      <c r="U43" s="50"/>
+      <c r="V43" s="50"/>
+      <c r="W43" s="50"/>
+      <c r="X43" s="50"/>
+      <c r="Y43" s="50"/>
+      <c r="Z43" s="50"/>
+      <c r="AA43" s="50"/>
+      <c r="AB43" s="50"/>
+      <c r="AC43" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="50"/>
+      <c r="AF43" s="57"/>
+      <c r="AG43" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="58">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AJ43" s="73"/>
+    </row>
+    <row r="44" spans="1:36" ht="51" x14ac:dyDescent="0.4">
+      <c r="A44" s="207"/>
+      <c r="B44" s="89" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="200"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="57"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="50"/>
+      <c r="V44" s="50"/>
+      <c r="W44" s="50"/>
+      <c r="X44" s="50"/>
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="50"/>
+      <c r="AA44" s="50"/>
+      <c r="AB44" s="50">
+        <v>2</v>
+      </c>
+      <c r="AC44" s="50">
+        <v>2</v>
+      </c>
+      <c r="AD44" s="50">
+        <v>2</v>
+      </c>
+      <c r="AE44" s="50"/>
+      <c r="AF44" s="57"/>
+      <c r="AG44" s="57">
+        <v>2</v>
+      </c>
+      <c r="AH44" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI44" s="58">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AJ44" s="73"/>
+    </row>
+    <row r="45" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+      <c r="A45" s="88"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="50"/>
+      <c r="R45" s="50"/>
+      <c r="S45" s="57"/>
+      <c r="T45" s="50"/>
+      <c r="U45" s="50"/>
+      <c r="V45" s="50"/>
+      <c r="W45" s="50"/>
+      <c r="X45" s="50"/>
+      <c r="Y45" s="50"/>
+      <c r="Z45" s="50"/>
+      <c r="AA45" s="50"/>
+      <c r="AB45" s="50"/>
+      <c r="AC45" s="50"/>
+      <c r="AD45" s="50"/>
+      <c r="AE45" s="50"/>
+      <c r="AF45" s="57"/>
+      <c r="AG45" s="57"/>
+      <c r="AH45" s="57"/>
+      <c r="AI45" s="58">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AJ28" s="73"/>
-    </row>
-    <row r="29" spans="1:36" ht="17" x14ac:dyDescent="0.4">
-      <c r="A29" s="145" t="s">
+      <c r="AJ45" s="73"/>
+    </row>
+    <row r="46" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+      <c r="A46" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="59"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="54"/>
+      <c r="V46" s="54"/>
+      <c r="W46" s="54"/>
+      <c r="X46" s="54"/>
+      <c r="Y46" s="54"/>
+      <c r="Z46" s="54"/>
+      <c r="AA46" s="54"/>
+      <c r="AB46" s="54"/>
+      <c r="AC46" s="54"/>
+      <c r="AD46" s="54"/>
+      <c r="AE46" s="54"/>
+      <c r="AF46" s="54"/>
+      <c r="AG46" s="54"/>
+      <c r="AH46" s="54"/>
+      <c r="AI46" s="55"/>
+      <c r="AJ46" s="73"/>
+    </row>
+    <row r="47" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+      <c r="A47" s="67"/>
+      <c r="B47" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57">
+        <v>1</v>
+      </c>
+      <c r="F47" s="57">
+        <v>1</v>
+      </c>
+      <c r="G47" s="50">
+        <v>1</v>
+      </c>
+      <c r="H47" s="57">
+        <v>1</v>
+      </c>
+      <c r="I47" s="50">
+        <v>1</v>
+      </c>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50">
+        <v>1</v>
+      </c>
+      <c r="M47" s="50">
+        <v>1</v>
+      </c>
+      <c r="N47" s="50">
+        <v>1</v>
+      </c>
+      <c r="O47" s="57">
+        <v>1</v>
+      </c>
+      <c r="P47" s="57">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="50"/>
+      <c r="S47" s="57">
+        <v>1</v>
+      </c>
+      <c r="T47" s="50">
+        <v>1</v>
+      </c>
+      <c r="U47" s="50">
+        <v>1</v>
+      </c>
+      <c r="V47" s="50">
+        <v>1</v>
+      </c>
+      <c r="W47" s="50">
+        <v>1</v>
+      </c>
+      <c r="X47" s="50"/>
+      <c r="Y47" s="50"/>
+      <c r="Z47" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="50">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="50">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="50">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="50">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="50"/>
+      <c r="AF47" s="57"/>
+      <c r="AG47" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH47" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI47" s="58">
+        <f>SUM(D47:AH47)</f>
+        <v>22</v>
+      </c>
+      <c r="AJ47" s="73"/>
+    </row>
+    <row r="48" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+      <c r="A48" s="67"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="57"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="57"/>
+      <c r="T48" s="50"/>
+      <c r="U48" s="50"/>
+      <c r="V48" s="50"/>
+      <c r="W48" s="50"/>
+      <c r="X48" s="50"/>
+      <c r="Y48" s="50"/>
+      <c r="Z48" s="50"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="50"/>
+      <c r="AE48" s="50"/>
+      <c r="AF48" s="57"/>
+      <c r="AG48" s="57"/>
+      <c r="AH48" s="57"/>
+      <c r="AI48" s="58">
+        <f>SUM(D48:AH48)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="73"/>
+    </row>
+    <row r="49" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+      <c r="A49" s="67"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="50"/>
+      <c r="R49" s="50"/>
+      <c r="S49" s="57"/>
+      <c r="T49" s="50"/>
+      <c r="U49" s="50"/>
+      <c r="V49" s="50"/>
+      <c r="W49" s="50"/>
+      <c r="X49" s="50"/>
+      <c r="Y49" s="50"/>
+      <c r="Z49" s="50"/>
+      <c r="AA49" s="50"/>
+      <c r="AB49" s="50"/>
+      <c r="AC49" s="50"/>
+      <c r="AD49" s="50"/>
+      <c r="AE49" s="50"/>
+      <c r="AF49" s="57"/>
+      <c r="AG49" s="57"/>
+      <c r="AH49" s="57"/>
+      <c r="AI49" s="58">
+        <f>SUM(D49:AH49)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="73"/>
+    </row>
+    <row r="50" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="68"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="61"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="61"/>
+      <c r="P50" s="61"/>
+      <c r="Q50" s="61"/>
+      <c r="R50" s="61"/>
+      <c r="S50" s="61"/>
+      <c r="T50" s="61"/>
+      <c r="U50" s="61"/>
+      <c r="V50" s="61"/>
+      <c r="W50" s="61"/>
+      <c r="X50" s="61"/>
+      <c r="Y50" s="61"/>
+      <c r="Z50" s="61"/>
+      <c r="AA50" s="61"/>
+      <c r="AB50" s="61"/>
+      <c r="AC50" s="61"/>
+      <c r="AD50" s="61"/>
+      <c r="AE50" s="61"/>
+      <c r="AF50" s="61"/>
+      <c r="AG50" s="62"/>
+      <c r="AH50" s="62"/>
+      <c r="AI50" s="62"/>
+      <c r="AJ50" s="73"/>
+    </row>
+    <row r="51" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+      <c r="A51" s="176" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="177"/>
+      <c r="C51" s="178"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="57"/>
+      <c r="Q51" s="50"/>
+      <c r="R51" s="50"/>
+      <c r="S51" s="57"/>
+      <c r="T51" s="50"/>
+      <c r="U51" s="50"/>
+      <c r="V51" s="50"/>
+      <c r="W51" s="50"/>
+      <c r="X51" s="50"/>
+      <c r="Y51" s="50"/>
+      <c r="Z51" s="50"/>
+      <c r="AA51" s="50"/>
+      <c r="AB51" s="50"/>
+      <c r="AC51" s="50"/>
+      <c r="AD51" s="50"/>
+      <c r="AE51" s="50"/>
+      <c r="AF51" s="57"/>
+      <c r="AG51" s="57"/>
+      <c r="AH51" s="57"/>
+      <c r="AI51" s="58">
+        <f>SUM(D51:AH51)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="73"/>
+    </row>
+    <row r="52" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+      <c r="A52" s="176" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="177"/>
+      <c r="C52" s="178"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="50"/>
+      <c r="R52" s="50"/>
+      <c r="S52" s="57"/>
+      <c r="T52" s="50"/>
+      <c r="U52" s="50"/>
+      <c r="V52" s="50"/>
+      <c r="W52" s="50"/>
+      <c r="X52" s="50"/>
+      <c r="Y52" s="50"/>
+      <c r="Z52" s="50"/>
+      <c r="AA52" s="50"/>
+      <c r="AB52" s="50"/>
+      <c r="AC52" s="50"/>
+      <c r="AD52" s="50"/>
+      <c r="AE52" s="50"/>
+      <c r="AF52" s="57"/>
+      <c r="AG52" s="57"/>
+      <c r="AH52" s="57"/>
+      <c r="AI52" s="58">
+        <f>SUM(D52:AH52)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="73"/>
+    </row>
+    <row r="53" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+      <c r="A53" s="179" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="180"/>
+      <c r="C53" s="181"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="50"/>
+      <c r="R53" s="50"/>
+      <c r="S53" s="57"/>
+      <c r="T53" s="50"/>
+      <c r="U53" s="50"/>
+      <c r="V53" s="50"/>
+      <c r="W53" s="50"/>
+      <c r="X53" s="50"/>
+      <c r="Y53" s="50"/>
+      <c r="Z53" s="50"/>
+      <c r="AA53" s="50"/>
+      <c r="AB53" s="50"/>
+      <c r="AC53" s="50"/>
+      <c r="AD53" s="50"/>
+      <c r="AE53" s="50"/>
+      <c r="AF53" s="57"/>
+      <c r="AG53" s="57"/>
+      <c r="AH53" s="57"/>
+      <c r="AI53" s="58">
+        <f>SUM(D53:AH53)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="73"/>
+    </row>
+    <row r="54" spans="1:36" ht="17" x14ac:dyDescent="0.4">
+      <c r="A54" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="57">
-        <f t="shared" ref="D29:AB29" si="2">SUM(D11:D24)</f>
+      <c r="B54" s="177"/>
+      <c r="C54" s="178"/>
+      <c r="D54" s="57">
+        <f t="shared" ref="D54:AH54" si="2">SUM(D11:D49)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E54" s="57">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F29" s="57">
+        <v>8</v>
+      </c>
+      <c r="F54" s="57">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G29" s="57">
+        <v>8</v>
+      </c>
+      <c r="G54" s="57">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H29" s="57">
+        <v>8</v>
+      </c>
+      <c r="H54" s="57">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I29" s="50">
+        <v>8</v>
+      </c>
+      <c r="I54" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J29" s="50">
+        <v>8</v>
+      </c>
+      <c r="J54" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K29" s="50">
+      <c r="K54" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L29" s="50">
+      <c r="L54" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M29" s="50">
+        <v>8</v>
+      </c>
+      <c r="M54" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N29" s="50">
+        <v>8</v>
+      </c>
+      <c r="N54" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O29" s="50">
+        <v>8</v>
+      </c>
+      <c r="O54" s="57">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P29" s="50">
+        <v>8</v>
+      </c>
+      <c r="P54" s="57">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q29" s="50">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R29" s="50">
+      <c r="R54" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S29" s="50">
+      <c r="S54" s="57">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="T29" s="50">
+        <v>8</v>
+      </c>
+      <c r="T54" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U29" s="50">
+        <v>8</v>
+      </c>
+      <c r="U54" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V29" s="50">
+        <v>8</v>
+      </c>
+      <c r="V54" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="W29" s="50">
+        <v>8</v>
+      </c>
+      <c r="W54" s="50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X29" s="50">
+        <v>8</v>
+      </c>
+      <c r="X54" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="50">
+      <c r="Y54" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="50">
+      <c r="Z54" s="50">
         <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AA54" s="50">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AB54" s="50">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AC54" s="50">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AD54" s="50">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AE54" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="50">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AH54" s="50">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AI54" s="58">
+        <f>SUM(D54:AH54)</f>
+        <v>176</v>
+      </c>
+      <c r="AJ54" s="73"/>
+    </row>
+    <row r="55" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:36" s="93" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="91"/>
+      <c r="B56" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="143"/>
+      <c r="S56" s="196" t="s">
+        <v>43</v>
+      </c>
+      <c r="T56" s="197"/>
+      <c r="U56" s="197"/>
+      <c r="V56" s="197"/>
+      <c r="W56" s="197"/>
+      <c r="X56" s="197"/>
+      <c r="Y56" s="197"/>
+      <c r="Z56" s="197"/>
+      <c r="AA56" s="198"/>
+      <c r="AC56" s="182" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD56" s="183"/>
+      <c r="AE56" s="183"/>
+      <c r="AF56" s="183"/>
+      <c r="AG56" s="183"/>
+      <c r="AH56" s="183"/>
+      <c r="AI56" s="183"/>
+      <c r="AJ56" s="184"/>
+    </row>
+    <row r="57" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="69"/>
+      <c r="B57" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="143"/>
+      <c r="F57" s="143"/>
+      <c r="G57" s="143"/>
+      <c r="H57" s="143"/>
+      <c r="I57" s="143"/>
+      <c r="J57" s="143"/>
+      <c r="S57" s="185" t="s">
+        <v>46</v>
+      </c>
+      <c r="T57" s="186"/>
+      <c r="U57" s="187" t="s">
+        <v>169</v>
+      </c>
+      <c r="V57" s="187"/>
+      <c r="W57" s="187"/>
+      <c r="X57" s="187"/>
+      <c r="Y57" s="187"/>
+      <c r="Z57" s="187"/>
+      <c r="AA57" s="188"/>
+      <c r="AC57" s="159" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD57" s="145"/>
+      <c r="AE57" s="145"/>
+      <c r="AF57" s="145"/>
+      <c r="AG57" s="145"/>
+      <c r="AH57" s="145"/>
+      <c r="AI57" s="145"/>
+      <c r="AJ57" s="146"/>
+    </row>
+    <row r="58" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="70"/>
+      <c r="B58" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="143"/>
+      <c r="F58" s="143"/>
+      <c r="G58" s="143"/>
+      <c r="H58" s="143"/>
+      <c r="I58" s="143"/>
+      <c r="J58" s="143"/>
+      <c r="S58" s="185"/>
+      <c r="T58" s="186"/>
+      <c r="U58" s="187"/>
+      <c r="V58" s="187"/>
+      <c r="W58" s="187"/>
+      <c r="X58" s="187"/>
+      <c r="Y58" s="187"/>
+      <c r="Z58" s="187"/>
+      <c r="AA58" s="188"/>
+      <c r="AC58" s="160"/>
+      <c r="AD58" s="148"/>
+      <c r="AE58" s="148"/>
+      <c r="AF58" s="148"/>
+      <c r="AG58" s="148"/>
+      <c r="AH58" s="148"/>
+      <c r="AI58" s="148"/>
+      <c r="AJ58" s="149"/>
+    </row>
+    <row r="59" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="71"/>
+      <c r="B59" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="143"/>
+      <c r="F59" s="143"/>
+      <c r="G59" s="143"/>
+      <c r="H59" s="143"/>
+      <c r="I59" s="143"/>
+      <c r="J59" s="143"/>
+      <c r="S59" s="185"/>
+      <c r="T59" s="186"/>
+      <c r="U59" s="187"/>
+      <c r="V59" s="187"/>
+      <c r="W59" s="187"/>
+      <c r="X59" s="187"/>
+      <c r="Y59" s="187"/>
+      <c r="Z59" s="187"/>
+      <c r="AA59" s="188"/>
+      <c r="AC59" s="160"/>
+      <c r="AD59" s="148"/>
+      <c r="AE59" s="148"/>
+      <c r="AF59" s="148"/>
+      <c r="AG59" s="148"/>
+      <c r="AH59" s="148"/>
+      <c r="AI59" s="148"/>
+      <c r="AJ59" s="149"/>
+    </row>
+    <row r="60" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S60" s="185"/>
+      <c r="T60" s="186"/>
+      <c r="U60" s="187"/>
+      <c r="V60" s="187"/>
+      <c r="W60" s="187"/>
+      <c r="X60" s="187"/>
+      <c r="Y60" s="187"/>
+      <c r="Z60" s="187"/>
+      <c r="AA60" s="188"/>
+      <c r="AC60" s="160"/>
+      <c r="AD60" s="148"/>
+      <c r="AE60" s="148"/>
+      <c r="AF60" s="148"/>
+      <c r="AG60" s="148"/>
+      <c r="AH60" s="148"/>
+      <c r="AI60" s="148"/>
+      <c r="AJ60" s="149"/>
+    </row>
+    <row r="61" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A61" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="46"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="S61" s="185"/>
+      <c r="T61" s="186"/>
+      <c r="U61" s="187"/>
+      <c r="V61" s="187"/>
+      <c r="W61" s="187"/>
+      <c r="X61" s="187"/>
+      <c r="Y61" s="187"/>
+      <c r="Z61" s="187"/>
+      <c r="AA61" s="188"/>
+      <c r="AC61" s="189"/>
+      <c r="AD61" s="190"/>
+      <c r="AE61" s="190"/>
+      <c r="AF61" s="190"/>
+      <c r="AG61" s="190"/>
+      <c r="AH61" s="190"/>
+      <c r="AI61" s="190"/>
+      <c r="AJ61" s="191"/>
+    </row>
+    <row r="62" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A62" s="140" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="140"/>
+      <c r="C62" s="63">
+        <f>COUNTIF(D53:AH53,"=8")</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="S62" s="185" t="s">
+        <v>53</v>
+      </c>
+      <c r="T62" s="186"/>
+      <c r="U62" s="187" t="s">
+        <v>170</v>
+      </c>
+      <c r="V62" s="187"/>
+      <c r="W62" s="187"/>
+      <c r="X62" s="187"/>
+      <c r="Y62" s="187"/>
+      <c r="Z62" s="187"/>
+      <c r="AA62" s="188"/>
+      <c r="AC62" s="160" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD62" s="148"/>
+      <c r="AE62" s="148"/>
+      <c r="AF62" s="148"/>
+      <c r="AG62" s="148"/>
+      <c r="AH62" s="148"/>
+      <c r="AI62" s="148"/>
+      <c r="AJ62" s="149"/>
+    </row>
+    <row r="63" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A63" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="47"/>
+      <c r="C63" s="64">
+        <f>NETWORKDAYS(B2,B3)-C62</f>
+        <v>22</v>
+      </c>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="S63" s="185"/>
+      <c r="T63" s="186"/>
+      <c r="U63" s="187"/>
+      <c r="V63" s="187"/>
+      <c r="W63" s="187"/>
+      <c r="X63" s="187"/>
+      <c r="Y63" s="187"/>
+      <c r="Z63" s="187"/>
+      <c r="AA63" s="188"/>
+      <c r="AC63" s="160"/>
+      <c r="AD63" s="148"/>
+      <c r="AE63" s="148"/>
+      <c r="AF63" s="148"/>
+      <c r="AG63" s="148"/>
+      <c r="AH63" s="148"/>
+      <c r="AI63" s="148"/>
+      <c r="AJ63" s="149"/>
+    </row>
+    <row r="64" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A64" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="47"/>
+      <c r="C64" s="63">
+        <f>AI52/8</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="S64" s="185"/>
+      <c r="T64" s="186"/>
+      <c r="U64" s="187"/>
+      <c r="V64" s="187"/>
+      <c r="W64" s="187"/>
+      <c r="X64" s="187"/>
+      <c r="Y64" s="187"/>
+      <c r="Z64" s="187"/>
+      <c r="AA64" s="188"/>
+      <c r="AC64" s="160"/>
+      <c r="AD64" s="148"/>
+      <c r="AE64" s="148"/>
+      <c r="AF64" s="148"/>
+      <c r="AG64" s="148"/>
+      <c r="AH64" s="148"/>
+      <c r="AI64" s="148"/>
+      <c r="AJ64" s="149"/>
+    </row>
+    <row r="65" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A65" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="47"/>
+      <c r="C65" s="63">
+        <f>AI51/8</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="S65" s="185"/>
+      <c r="T65" s="186"/>
+      <c r="U65" s="187"/>
+      <c r="V65" s="187"/>
+      <c r="W65" s="187"/>
+      <c r="X65" s="187"/>
+      <c r="Y65" s="187"/>
+      <c r="Z65" s="187"/>
+      <c r="AA65" s="188"/>
+      <c r="AC65" s="160"/>
+      <c r="AD65" s="148"/>
+      <c r="AE65" s="148"/>
+      <c r="AF65" s="148"/>
+      <c r="AG65" s="148"/>
+      <c r="AH65" s="148"/>
+      <c r="AI65" s="148"/>
+      <c r="AJ65" s="149"/>
+    </row>
+    <row r="66" spans="1:36" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="174" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="174"/>
+      <c r="C66" s="63">
+        <f>COUNTIF(D54:AH54,"&gt;0")</f>
+        <v>22</v>
+      </c>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="S66" s="192"/>
+      <c r="T66" s="193"/>
+      <c r="U66" s="194"/>
+      <c r="V66" s="194"/>
+      <c r="W66" s="194"/>
+      <c r="X66" s="194"/>
+      <c r="Y66" s="194"/>
+      <c r="Z66" s="194"/>
+      <c r="AA66" s="195"/>
+      <c r="AC66" s="161"/>
+      <c r="AD66" s="151"/>
+      <c r="AE66" s="151"/>
+      <c r="AF66" s="151"/>
+      <c r="AG66" s="151"/>
+      <c r="AH66" s="151"/>
+      <c r="AI66" s="151"/>
+      <c r="AJ66" s="152"/>
+    </row>
+    <row r="67" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A67" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="47"/>
+      <c r="C67" s="65">
+        <f>C66/(C66+C64+C65)</f>
         <v>1</v>
       </c>
-      <c r="AA29" s="50">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AB29" s="50">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AC29" s="50">
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+    </row>
+    <row r="68" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A68" s="63"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+    </row>
+    <row r="69" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A69" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="46"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+    </row>
+    <row r="70" spans="1:36" ht="35.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="174" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="174"/>
+      <c r="C70" s="63">
+        <f>AI54</f>
+        <v>176</v>
+      </c>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+    </row>
+    <row r="71" spans="1:36" ht="38.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="174" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="174"/>
+      <c r="C71" s="63">
+        <v>39</v>
+      </c>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+    </row>
+    <row r="72" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A72" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="48"/>
+      <c r="C72" s="63">
+        <f>SUMIFS($AI$12:$AI$49, $C$12:$C$49, "Morning")</f>
+        <v>22</v>
+      </c>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+    </row>
+    <row r="73" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A73" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="48"/>
+      <c r="C73" s="63">
+        <f>SUMIFS($AI$12:$AI$49, $C$12:$C$49, "Afternoon")</f>
         <v>0</v>
       </c>
-      <c r="AD29" s="50">
-        <f>SUM(AD11:AD24)</f>
-        <v>1</v>
-      </c>
-      <c r="AE29" s="50">
-        <f>SUM(AE11:AE24)</f>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+    </row>
+    <row r="74" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A74" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="48"/>
+      <c r="C74" s="63">
+        <f>SUMIFS($AI$12:$AI$49, $C$12:$C$49, "Night")</f>
         <v>0</v>
       </c>
-      <c r="AF29" s="57">
-        <f>SUM(AF11:AF24)</f>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="57">
-        <f>SUM(AG11:AG24)</f>
-        <v>1</v>
-      </c>
-      <c r="AH29" s="57">
-        <f>SUM(AH11:AH24)</f>
-        <v>1</v>
-      </c>
-      <c r="AI29" s="58">
-        <f>SUM(D29:AH29)</f>
-        <v>21</v>
-      </c>
-      <c r="AJ29" s="73"/>
-    </row>
-    <row r="30" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:36" s="93" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="91"/>
-      <c r="B31" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="154"/>
-      <c r="S31" s="199" t="s">
-        <v>43</v>
-      </c>
-      <c r="T31" s="200"/>
-      <c r="U31" s="200"/>
-      <c r="V31" s="200"/>
-      <c r="W31" s="200"/>
-      <c r="X31" s="200"/>
-      <c r="Y31" s="200"/>
-      <c r="Z31" s="200"/>
-      <c r="AA31" s="201"/>
-      <c r="AC31" s="185" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD31" s="186"/>
-      <c r="AE31" s="186"/>
-      <c r="AF31" s="186"/>
-      <c r="AG31" s="186"/>
-      <c r="AH31" s="186"/>
-      <c r="AI31" s="186"/>
-      <c r="AJ31" s="187"/>
-    </row>
-    <row r="32" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="69"/>
-      <c r="B32" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="154"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="154"/>
-      <c r="S32" s="188" t="s">
-        <v>46</v>
-      </c>
-      <c r="T32" s="189"/>
-      <c r="U32" s="190" t="s">
-        <v>170</v>
-      </c>
-      <c r="V32" s="190"/>
-      <c r="W32" s="190"/>
-      <c r="X32" s="190"/>
-      <c r="Y32" s="190"/>
-      <c r="Z32" s="190"/>
-      <c r="AA32" s="191"/>
-      <c r="AC32" s="170" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD32" s="156"/>
-      <c r="AE32" s="156"/>
-      <c r="AF32" s="156"/>
-      <c r="AG32" s="156"/>
-      <c r="AH32" s="156"/>
-      <c r="AI32" s="156"/>
-      <c r="AJ32" s="157"/>
-    </row>
-    <row r="33" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="70"/>
-      <c r="B33" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="154"/>
-      <c r="S33" s="188"/>
-      <c r="T33" s="189"/>
-      <c r="U33" s="190"/>
-      <c r="V33" s="190"/>
-      <c r="W33" s="190"/>
-      <c r="X33" s="190"/>
-      <c r="Y33" s="190"/>
-      <c r="Z33" s="190"/>
-      <c r="AA33" s="191"/>
-      <c r="AC33" s="171"/>
-      <c r="AD33" s="159"/>
-      <c r="AE33" s="159"/>
-      <c r="AF33" s="159"/>
-      <c r="AG33" s="159"/>
-      <c r="AH33" s="159"/>
-      <c r="AI33" s="159"/>
-      <c r="AJ33" s="160"/>
-    </row>
-    <row r="34" spans="1:36" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="71"/>
-      <c r="B34" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="154"/>
-      <c r="S34" s="188"/>
-      <c r="T34" s="189"/>
-      <c r="U34" s="190"/>
-      <c r="V34" s="190"/>
-      <c r="W34" s="190"/>
-      <c r="X34" s="190"/>
-      <c r="Y34" s="190"/>
-      <c r="Z34" s="190"/>
-      <c r="AA34" s="191"/>
-      <c r="AC34" s="171"/>
-      <c r="AD34" s="159"/>
-      <c r="AE34" s="159"/>
-      <c r="AF34" s="159"/>
-      <c r="AG34" s="159"/>
-      <c r="AH34" s="159"/>
-      <c r="AI34" s="159"/>
-      <c r="AJ34" s="160"/>
-    </row>
-    <row r="35" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S35" s="188"/>
-      <c r="T35" s="189"/>
-      <c r="U35" s="190"/>
-      <c r="V35" s="190"/>
-      <c r="W35" s="190"/>
-      <c r="X35" s="190"/>
-      <c r="Y35" s="190"/>
-      <c r="Z35" s="190"/>
-      <c r="AA35" s="191"/>
-      <c r="AC35" s="171"/>
-      <c r="AD35" s="159"/>
-      <c r="AE35" s="159"/>
-      <c r="AF35" s="159"/>
-      <c r="AG35" s="159"/>
-      <c r="AH35" s="159"/>
-      <c r="AI35" s="159"/>
-      <c r="AJ35" s="160"/>
-    </row>
-    <row r="36" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="S36" s="188"/>
-      <c r="T36" s="189"/>
-      <c r="U36" s="190"/>
-      <c r="V36" s="190"/>
-      <c r="W36" s="190"/>
-      <c r="X36" s="190"/>
-      <c r="Y36" s="190"/>
-      <c r="Z36" s="190"/>
-      <c r="AA36" s="191"/>
-      <c r="AC36" s="192"/>
-      <c r="AD36" s="193"/>
-      <c r="AE36" s="193"/>
-      <c r="AF36" s="193"/>
-      <c r="AG36" s="193"/>
-      <c r="AH36" s="193"/>
-      <c r="AI36" s="193"/>
-      <c r="AJ36" s="194"/>
-    </row>
-    <row r="37" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="151" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="151"/>
-      <c r="C37" s="63">
-        <f>COUNTIF(D28:AH28,"=8")</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="S37" s="188" t="s">
-        <v>53</v>
-      </c>
-      <c r="T37" s="189"/>
-      <c r="U37" s="190" t="s">
-        <v>171</v>
-      </c>
-      <c r="V37" s="190"/>
-      <c r="W37" s="190"/>
-      <c r="X37" s="190"/>
-      <c r="Y37" s="190"/>
-      <c r="Z37" s="190"/>
-      <c r="AA37" s="191"/>
-      <c r="AC37" s="171" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD37" s="159"/>
-      <c r="AE37" s="159"/>
-      <c r="AF37" s="159"/>
-      <c r="AG37" s="159"/>
-      <c r="AH37" s="159"/>
-      <c r="AI37" s="159"/>
-      <c r="AJ37" s="160"/>
-    </row>
-    <row r="38" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="64">
-        <f>NETWORKDAYS(B2,B3)-C37</f>
-        <v>22</v>
-      </c>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="S38" s="188"/>
-      <c r="T38" s="189"/>
-      <c r="U38" s="190"/>
-      <c r="V38" s="190"/>
-      <c r="W38" s="190"/>
-      <c r="X38" s="190"/>
-      <c r="Y38" s="190"/>
-      <c r="Z38" s="190"/>
-      <c r="AA38" s="191"/>
-      <c r="AC38" s="171"/>
-      <c r="AD38" s="159"/>
-      <c r="AE38" s="159"/>
-      <c r="AF38" s="159"/>
-      <c r="AG38" s="159"/>
-      <c r="AH38" s="159"/>
-      <c r="AI38" s="159"/>
-      <c r="AJ38" s="160"/>
-    </row>
-    <row r="39" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="63">
-        <f>AI27/8</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="S39" s="188"/>
-      <c r="T39" s="189"/>
-      <c r="U39" s="190"/>
-      <c r="V39" s="190"/>
-      <c r="W39" s="190"/>
-      <c r="X39" s="190"/>
-      <c r="Y39" s="190"/>
-      <c r="Z39" s="190"/>
-      <c r="AA39" s="191"/>
-      <c r="AC39" s="171"/>
-      <c r="AD39" s="159"/>
-      <c r="AE39" s="159"/>
-      <c r="AF39" s="159"/>
-      <c r="AG39" s="159"/>
-      <c r="AH39" s="159"/>
-      <c r="AI39" s="159"/>
-      <c r="AJ39" s="160"/>
-    </row>
-    <row r="40" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="63">
-        <f>AI26/8</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="S40" s="188"/>
-      <c r="T40" s="189"/>
-      <c r="U40" s="190"/>
-      <c r="V40" s="190"/>
-      <c r="W40" s="190"/>
-      <c r="X40" s="190"/>
-      <c r="Y40" s="190"/>
-      <c r="Z40" s="190"/>
-      <c r="AA40" s="191"/>
-      <c r="AC40" s="171"/>
-      <c r="AD40" s="159"/>
-      <c r="AE40" s="159"/>
-      <c r="AF40" s="159"/>
-      <c r="AG40" s="159"/>
-      <c r="AH40" s="159"/>
-      <c r="AI40" s="159"/>
-      <c r="AJ40" s="160"/>
-    </row>
-    <row r="41" spans="1:36" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="142" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="142"/>
-      <c r="C41" s="63">
-        <f>COUNTIF(D29:AH29,"&gt;0")</f>
-        <v>21</v>
-      </c>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="S41" s="195"/>
-      <c r="T41" s="196"/>
-      <c r="U41" s="197"/>
-      <c r="V41" s="197"/>
-      <c r="W41" s="197"/>
-      <c r="X41" s="197"/>
-      <c r="Y41" s="197"/>
-      <c r="Z41" s="197"/>
-      <c r="AA41" s="198"/>
-      <c r="AC41" s="172"/>
-      <c r="AD41" s="162"/>
-      <c r="AE41" s="162"/>
-      <c r="AF41" s="162"/>
-      <c r="AG41" s="162"/>
-      <c r="AH41" s="162"/>
-      <c r="AI41" s="162"/>
-      <c r="AJ41" s="163"/>
-    </row>
-    <row r="42" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="65">
-        <f>C41/(C41+C39+C40)</f>
-        <v>1</v>
-      </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-    </row>
-    <row r="43" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="63"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-    </row>
-    <row r="44" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-    </row>
-    <row r="45" spans="1:36" ht="35.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="142" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="142"/>
-      <c r="C45" s="63">
-        <f>AI29</f>
-        <v>21</v>
-      </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-    </row>
-    <row r="46" spans="1:36" ht="38.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="142" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="142"/>
-      <c r="C46" s="63">
-        <v>39</v>
-      </c>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-    </row>
-    <row r="47" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A47" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="63">
-        <f>SUMIFS($AI$12:$AI$24, $C$12:$C$24, "Morning")</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-    </row>
-    <row r="48" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="63">
-        <f>SUMIFS($AI$12:$AI$24, $C$12:$C$24, "Afternoon")</f>
-        <v>0</v>
-      </c>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-    </row>
-    <row r="49" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="63">
-        <f>SUMIFS($AI$12:$AI$24, $C$12:$C$24, "Night")</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
-    </row>
-    <row r="50" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A50" s="63"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-    </row>
-    <row r="51" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A51" s="72" t="s">
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+    </row>
+    <row r="75" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A75" s="63"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
+    </row>
+    <row r="76" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A76" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="46"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-    </row>
-    <row r="52" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A52" s="63" t="s">
+      <c r="B76" s="46"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
+    </row>
+    <row r="77" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A77" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="47"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-    </row>
-    <row r="53" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A53" s="63" t="s">
+      <c r="B77" s="47"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+    </row>
+    <row r="78" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A78" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
-    </row>
-    <row r="54" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="63"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="44"/>
-    </row>
-    <row r="56" spans="1:10" ht="155.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="1:10" ht="169" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
+    </row>
+    <row r="79" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A79" s="63"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="44"/>
+    </row>
+    <row r="81" ht="155.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="169" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="AC31:AJ31"/>
-    <mergeCell ref="S32:T36"/>
-    <mergeCell ref="U32:AA36"/>
-    <mergeCell ref="AC32:AJ36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="S37:T41"/>
-    <mergeCell ref="U37:AA41"/>
-    <mergeCell ref="AC37:AJ41"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="S31:AA31"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="E31:J34"/>
+  <mergeCells count="24">
+    <mergeCell ref="A12:A44"/>
     <mergeCell ref="AI9:AI10"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="E56:J59"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="AC56:AJ56"/>
+    <mergeCell ref="S57:T61"/>
+    <mergeCell ref="U57:AA61"/>
+    <mergeCell ref="AC57:AJ61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="S62:T66"/>
+    <mergeCell ref="U62:AA66"/>
+    <mergeCell ref="AC62:AJ66"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="S56:AA56"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="expression" dxfId="5" priority="1">
@@ -6495,17 +9662,17 @@
       <formula>TEXT(B3,"mmm")&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:AH24 D25:AF25 D26:AH29">
+  <conditionalFormatting sqref="D50:AF50 D9:AH49 D51:AH54">
     <cfRule type="expression" dxfId="3" priority="36">
-      <formula>D$28=8</formula>
+      <formula>D$53=8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:AH29 D9:AH24 D25:AF25">
+  <conditionalFormatting sqref="D50:AF50 D9:AH49 D51:AH54">
     <cfRule type="expression" dxfId="2" priority="35">
       <formula>OR(D$9="Sat",D$9="Sun")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:AH29">
+  <conditionalFormatting sqref="D54:AH54">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
@@ -7383,7 +10550,7 @@
       <c r="C47" s="129"/>
       <c r="D47" s="122"/>
       <c r="E47" s="119"/>
-      <c r="F47" s="202"/>
+      <c r="F47" s="199"/>
       <c r="G47" s="122"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.35">
@@ -7391,7 +10558,7 @@
       <c r="C48" s="128"/>
       <c r="D48" s="122"/>
       <c r="E48" s="119"/>
-      <c r="F48" s="202"/>
+      <c r="F48" s="199"/>
       <c r="G48" s="122"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.35">
@@ -7399,7 +10566,7 @@
       <c r="C49" s="128"/>
       <c r="D49" s="122"/>
       <c r="E49" s="119"/>
-      <c r="F49" s="202"/>
+      <c r="F49" s="199"/>
       <c r="G49" s="122"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.35">
@@ -7407,7 +10574,7 @@
       <c r="C50" s="129"/>
       <c r="D50" s="122"/>
       <c r="E50" s="119"/>
-      <c r="F50" s="202"/>
+      <c r="F50" s="199"/>
       <c r="G50" s="122"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.35">
@@ -7567,6 +10734,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBBA4E8384962545BF977EF5EB207524" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c71af4b5276cc520d7caa7153b08011">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ecef1726-c816-4ce0-a2de-c7222e5e0303" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d40dcfb130600d1adddbff1088e0e0d5" ns2:_="">
     <xsd:import namespace="ecef1726-c816-4ce0-a2de-c7222e5e0303"/>
@@ -7710,16 +10886,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A50F55-EB9E-48CA-A399-9CBC9253A5CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E1BDC32-896F-448F-9DE0-A2D567D26AC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7735,12 +10910,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A50F55-EB9E-48CA-A399-9CBC9253A5CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>